--- a/Instances/K0011113_b2_fe25_el_rk50_ll0_NonStationary.xlsx
+++ b/Instances/K0011113_b2_fe25_el_rk50_ll0_NonStationary.xlsx
@@ -999,7 +999,7 @@
       </c>
       <c r="H2" t="s"/>
       <c r="I2" t="n">
-        <v>272</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H3" t="s"/>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H4" t="s"/>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="H10" t="s"/>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
